--- a/public/netflix_global.xlsx
+++ b/public/netflix_global.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24075" windowHeight="17370"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="24075" windowHeight="17370"/>
   </bookViews>
   <sheets>
     <sheet name="Top 10" sheetId="1" r:id="rId1"/>
@@ -801,7 +801,7 @@
   <dimension ref="A1:I161"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -811,7 +811,8 @@
     <col min="3" max="3" width="12.125" customWidth="1"/>
     <col min="4" max="4" width="39.625" customWidth="1"/>
     <col min="5" max="5" width="32" customWidth="1"/>
-    <col min="6" max="9" width="20" customWidth="1"/>
+    <col min="6" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="27.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
